--- a/Data/EC/NIT-8904810161.xlsx
+++ b/Data/EC/NIT-8904810161.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E00AA999-177D-44FC-95AD-AC3D75D5D144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A53FAEDD-3BE3-4A00-AFFC-189152AF80C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FD7D40B-FE72-4875-9A7F-05D5DAA98023}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2EED63A7-27BC-4014-9A47-56BE9EC0DBE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="109">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -62,277 +62,274 @@
     <t>CONJUNTO RESIDENCIAL SAN FELIPE</t>
   </si>
   <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>948567815041982</t>
+  </si>
+  <si>
+    <t>HUMBERTO JOSE DURAN</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
-    <t>73103867</t>
-  </si>
-  <si>
-    <t>TEOFILO LAMBIS HERNANDEZ</t>
+    <t>1007120604</t>
+  </si>
+  <si>
+    <t>BAYRON ANDRES VASQUEZ ARAUJO</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>948567815041982</t>
-  </si>
-  <si>
-    <t>HUMBERTO JOSE DURAN</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1007120604</t>
-  </si>
-  <si>
-    <t>BAYRON ANDRES VASQUEZ ARAUJO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -431,7 +428,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -444,9 +443,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -646,23 +643,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,10 +687,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,7 +743,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3A4B77-643B-F3A1-3544-E908A92AEF7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2701FBEA-9A35-8C28-28A2-AA655E282B7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,8 +1094,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817968F2-804E-4696-8161-DA8E857E06D0}">
-  <dimension ref="B2:J111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55B3E06-6401-4A8A-B43E-FD677EC56B47}">
+  <dimension ref="B2:J106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1122,7 +1119,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1167,7 +1164,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1199,12 +1196,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2952067</v>
+        <v>2671316</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1215,17 +1212,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1252,13 +1249,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1275,10 +1272,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1298,10 +1295,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1321,10 +1318,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1344,10 +1341,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1367,10 +1364,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1390,10 +1387,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1401,16 +1398,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1424,16 +1421,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1447,16 +1444,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1470,16 +1467,16 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1493,16 +1490,16 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1516,16 +1513,16 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1539,16 +1536,16 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1562,16 +1559,16 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1585,16 +1582,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1608,16 +1605,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1631,16 +1628,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1654,16 +1651,16 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1677,16 +1674,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1700,16 +1697,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1723,16 +1720,16 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1746,16 +1743,16 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1769,16 +1766,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1792,16 +1789,16 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1815,16 +1812,16 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1838,16 +1835,16 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1861,16 +1858,16 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1884,16 +1881,16 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1907,16 +1904,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1930,16 +1927,16 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1953,16 +1950,16 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1976,16 +1973,16 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1999,16 +1996,16 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -2022,16 +2019,16 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2045,16 +2042,16 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2068,16 +2065,16 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2091,16 +2088,16 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2114,16 +2111,16 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2137,16 +2134,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2160,16 +2157,16 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2183,16 +2180,16 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2206,16 +2203,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2229,16 +2226,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2252,16 +2249,16 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2275,16 +2272,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2298,16 +2295,16 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2321,16 +2318,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2344,16 +2341,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2367,16 +2364,16 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2390,16 +2387,16 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2413,16 +2410,16 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2436,16 +2433,16 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2459,16 +2456,16 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2482,16 +2479,16 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2505,16 +2502,16 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2528,16 +2525,16 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2551,22 +2548,22 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G72" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2574,16 +2571,16 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2597,16 +2594,16 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2620,16 +2617,16 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2643,16 +2640,16 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2666,16 +2663,16 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2689,16 +2686,16 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2712,16 +2709,16 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2735,16 +2732,16 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2758,16 +2755,16 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2781,16 +2778,16 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2804,16 +2801,16 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2827,16 +2824,16 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2850,16 +2847,16 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2873,16 +2870,16 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2896,16 +2893,16 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2919,16 +2916,16 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2942,16 +2939,16 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2965,16 +2962,16 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2988,16 +2985,16 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3011,16 +3008,16 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3034,16 +3031,16 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3057,16 +3054,16 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3080,16 +3077,16 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3103,16 +3100,16 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3126,16 +3123,16 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3149,16 +3146,16 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3172,16 +3169,16 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3194,171 +3191,56 @@
       <c r="J99" s="20"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F100" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G100" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F101" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G101" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F102" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G102" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F103" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G103" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F104" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G104" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="B100" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G100" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="26"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F105" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G105" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="26"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="32" t="s">
+      <c r="B105" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="H105" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="H106" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="32"/>
-      <c r="H110" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C111" s="32"/>
-      <c r="H111" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H105:J105"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
